--- a/test_speeches/predictions/Speech_3_Testspeech_AI.xlsx
+++ b/test_speeches/predictions/Speech_3_Testspeech_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>It is a rare honor in this life to follow one of your heroes</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -507,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -519,23 +520,26 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And John Lewis is one of my heroes</t>
+          <t>It is a rare honor in this life to follow one of your heroes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -544,38 +548,41 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Now, I have to imagine that when a younger John Lewis woke up that morning fifty years ago and made his way to Brown Chapel, heroics were not on his mind</t>
+          <t xml:space="preserve"> And John Lewis is one of my heroes</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -587,26 +594,29 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A day like this was not on his mind</t>
+          <t>Now, I have to imagine that when a younger John Lewis woke up that morning fifty years ago and made his way to Brown Chapel, heroics were not on his mind</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -615,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -624,22 +634,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Young folks with bedrolls and backpacks were milling about</t>
+          <t xml:space="preserve"> A day like this was not on his mind</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -667,16 +680,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Veterans of the movement trained newcomers in the tactics of non-violence; the right way to protect yourself when attacked</t>
+          <t xml:space="preserve"> Young folks with bedrolls and backpacks were milling about</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -692,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,23 +720,26 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A doctor described what tear gas does to the body, while marchers scribbled down instructions for contacting their loved ones</t>
+          <t xml:space="preserve"> Veterans of the movement trained newcomers in the tactics of non-violence; the right way to protect yourself when attacked</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -732,32 +751,35 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The air was thick with doubt, anticipation, and fear</t>
+          <t xml:space="preserve"> A doctor described what tear gas does to the body, while marchers scribbled down instructions for contacting their loved ones</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -766,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -778,23 +800,26 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They comforted themselves with the final verse of the final hymn they sung:</t>
+          <t xml:space="preserve"> The air was thick with doubt, anticipation, and fear</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -803,35 +828,38 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No matter what may be the test, God will take care of you;</t>
+          <t xml:space="preserve"> They comforted themselves with the final verse of the final hymn they sung:</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -840,32 +868,35 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lean, weary one, upon His breast, God will take care of you</t>
+          <t>No matter what may be the test, God will take care of you;</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -883,29 +914,32 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Then, his knapsack stocked with an apple, a toothbrush, a book on government – all you need for a night behind bars – John Lewis led them out of the church on a mission to change America</t>
+          <t>Lean, weary one, upon His breast, God will take care of you</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -917,66 +951,72 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>President Bush and Mrs. Bush, Governor Bentley, Members of Congress, Mayor Evans, Reverend Strong, friends and fellow Americans:</t>
+          <t>Then, his knapsack stocked with an apple, a toothbrush, a book on government – all you need for a night behind bars – John Lewis led them out of the church on a mission to change America</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>There are places, and moments in America where this nation’s destiny has been decided</t>
+          <t>President Bush and Mrs. Bush, Governor Bentley, Members of Congress, Mayor Evans, Reverend Strong, friends and fellow Americans:</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -988,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1000,20 +1040,23 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Many are sites of war – Concord and Lexington, Appomattox and Gettysburg</t>
+          <t>There are places, and moments in America where this nation’s destiny has been decided</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1022,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1031,29 +1074,32 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Others are sites that symbolize the daring of America’s character – Independence Hall and Seneca Falls, Kitty Hawk and Cape Canaveral</t>
+          <t xml:space="preserve"> Many are sites of war – Concord and Lexington, Appomattox and Gettysburg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1065,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1074,23 +1120,26 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Selma is such a place</t>
+          <t xml:space="preserve"> Others are sites that symbolize the daring of America’s character – Independence Hall and Seneca Falls, Kitty Hawk and Cape Canaveral</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1102,29 +1151,32 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>In one afternoon fifty years ago, so much of our turbulent history – the stain of slavery and anguish of civil war; the yoke of segregation and tyranny of Jim Crow; the death of four little girls in Birmingham, and the dream of a Baptist preacher – met on this bridge</t>
+          <t>Selma is such a place</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1148,23 +1200,26 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>It was not a clash of armies, but a clash of wills; a contest to determine the meaning of America</t>
+          <t>In one afternoon fifty years ago, so much of our turbulent history – the stain of slavery and anguish of civil war; the yoke of segregation and tyranny of Jim Crow; the death of four little girls in Birmingham, and the dream of a Baptist preacher – met on this bridge</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1176,32 +1231,35 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>And because of men and women like John Lewis, Joseph Lowery, Hosea Williams, Amelia Boynton, Diane Nash, Ralph Abernathy, C.T. Vivian, Andrew Young, Fred Shuttlesworth, Dr. King, and so many more, the idea of a just America, a fair America, an inclusive America, a generous America – that idea ultimately triumphed</t>
+          <t>It was not a clash of armies, but a clash of wills; a contest to determine the meaning of America</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1216,29 +1274,32 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>As is true across the landscape of American history, we cannot examine this moment in isolation</t>
+          <t>And because of men and women like John Lewis, Joseph Lowery, Hosea Williams, Amelia Boynton, Diane Nash, Ralph Abernathy, C.T. Vivian, Andrew Young, Fred Shuttlesworth, Dr. King, and so many more, the idea of a just America, a fair America, an inclusive America, a generous America – that idea ultimately triumphed</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1250,32 +1311,35 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The march on Selma was part of a broader campaign that spanned generations; the leaders that day part of a long line of heroes</t>
+          <t>As is true across the landscape of American history, we cannot examine this moment in isolation</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1290,41 +1354,44 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>We gather here to celebrate them</t>
+          <t xml:space="preserve"> The march on Selma was part of a broader campaign that spanned generations; the leaders that day part of a long line of heroes</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1333,23 +1400,26 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We gather here to honor the courage of ordinary Americans willing to endure billy clubs and the chastening rod; tear gas and the trampling hoof; men and women who despite the gush of blood and splintered bone would stay true to their North Star and keep marching toward justice</t>
+          <t>We gather here to celebrate them</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1358,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1370,23 +1440,26 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>They did as Scripture instructed: “Rejoice in hope, be patient in tribulation, be constant in prayer.”</t>
+          <t xml:space="preserve"> We gather here to honor the courage of ordinary Americans willing to endure billy clubs and the chastening rod; tear gas and the trampling hoof; men and women who despite the gush of blood and splintered bone would stay true to their North Star and keep marching toward justice</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1398,32 +1471,35 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>And in the days to come, they went back again and again</t>
+          <t>They did as Scripture instructed: “Rejoice in hope, be patient in tribulation, be constant in prayer.”</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1432,47 +1508,50 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When the trumpet call sounded for more to join, the people came – black and white, young and old, Christian and Jew, waving the American flag and singing the same anthems full of faith and hope</t>
+          <t>And in the days to come, they went back again and again</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1481,97 +1560,106 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A white newsman, Bill Plante, who covered the marches then and who is with us here today, quipped that the growing number of white people lowered the quality of the singing</t>
+          <t xml:space="preserve"> When the trumpet call sounded for more to join, the people came – black and white, young and old, Christian and Jew, waving the American flag and singing the same anthems full of faith and hope</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To those who marched, though, those old gospel songs must have never sounded so sweet</t>
+          <t xml:space="preserve"> A white newsman, Bill Plante, who covered the marches then and who is with us here today, quipped that the growing number of white people lowered the quality of the singing</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>In time, their chorus would reach President Johnson</t>
+          <t xml:space="preserve"> To those who marched, though, those old gospel songs must have never sounded so sweet</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1580,35 +1668,38 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And he would send them protection, echoing their call for the nation and the world to hear:</t>
+          <t>In time, their chorus would reach President Johnson</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1620,32 +1711,35 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>“We shall overcome.”</t>
+          <t xml:space="preserve"> And he would send them protection, echoing their call for the nation and the world to hear:</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1660,29 +1754,32 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What enormous faith these men and women had</t>
+          <t>“We shall overcome.”</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1697,26 +1794,29 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faith in God – but also faith in America</t>
+          <t>What enormous faith these men and women had</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1728,72 +1828,78 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Americans who crossed this bridge were not physically imposing</t>
+          <t xml:space="preserve"> Faith in God – but also faith in America</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But they gave courage to millions</t>
+          <t>The Americans who crossed this bridge were not physically imposing</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1808,35 +1914,38 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They held no elected office</t>
+          <t xml:space="preserve"> But they gave courage to millions</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1845,22 +1954,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But they led a nation</t>
+          <t xml:space="preserve"> They held no elected office</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1888,57 +2000,63 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They marched as Americans who had endured hundreds of years of brutal violence, and countless daily indignities – but they didn’t seek special treatment, just the equal treatment promised to them almost a century before</t>
+          <t xml:space="preserve"> But they led a nation</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What they did here will reverberate through the ages</t>
+          <t xml:space="preserve"> They marched as Americans who had endured hundreds of years of brutal violence, and countless daily indignities – but they didn’t seek special treatment, just the equal treatment promised to them almost a century before</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1947,149 +2065,161 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not because the change they won was preordained; not because their victory was complete; but because they proved that nonviolent change is possible; that love and hope can conquer hate</t>
+          <t>What they did here will reverberate through the ages</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>As we commemorate their achievement, we are well-served to remember that at the time of the marches, many in power condemned rather than praised them</t>
+          <t xml:space="preserve"> Not because the change they won was preordained; not because their victory was complete; but because they proved that nonviolent change is possible; that love and hope can conquer hate</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Back then, they were called Communists, half-breeds, outside agitators, sexual and moral degenerates, and worse – everything but the name their parents gave them</t>
+          <t>As we commemorate their achievement, we are well-served to remember that at the time of the marches, many in power condemned rather than praised them</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Their faith was questioned</t>
+          <t xml:space="preserve"> Back then, they were called Communists, half-breeds, outside agitators, sexual and moral degenerates, and worse – everything but the name their parents gave them</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2101,32 +2231,35 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Their lives were threatened</t>
+          <t xml:space="preserve"> Their faith was questioned</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2141,29 +2274,32 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Their patriotism was challenged</t>
+          <t xml:space="preserve"> Their lives were threatened</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2175,25 +2311,28 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>And yet, what could be more American than what happened in this place?</t>
+          <t xml:space="preserve"> Their patriotism was challenged</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2209,28 +2348,31 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What could more profoundly vindicate the idea of America than plain and humble people – the unsung, the downtrodden, the dreamers not of high station, not born to wealth or privilege, not of one religious tradition but many – coming together to shape their country’s course?</t>
+          <t>And yet, what could be more American than what happened in this place?</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2240,34 +2382,37 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What greater expression of faith in the American experiment than this; what greater form of patriotism is there; than the belief that America is not yet finished, that we are strong enough to be self-critical, that each successive generation can look upon our imperfections and decide that it is in our power to remake this nation to more closely align with our highest ideals?</t>
+          <t>What could more profoundly vindicate the idea of America than plain and humble people – the unsung, the downtrodden, the dreamers not of high station, not born to wealth or privilege, not of one religious tradition but many – coming together to shape their country’s course?</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2277,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2295,57 +2440,63 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>That’s why Selma is not some outlier in the American experience</t>
+          <t>What greater expression of faith in the American experiment than this; what greater form of patriotism is there; than the belief that America is not yet finished, that we are strong enough to be self-critical, that each successive generation can look upon our imperfections and decide that it is in our power to remake this nation to more closely align with our highest ideals?</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s why it’s not a museum or static monument to behold from a distance</t>
+          <t>That’s why Selma is not some outlier in the American experience</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2354,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2363,26 +2514,29 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is instead the manifestation of a creed written into our founding documents:</t>
+          <t xml:space="preserve"> That’s why it’s not a museum or static monument to behold from a distance</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2397,32 +2551,35 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>“We the People…in order to form a more perfect union.”</t>
+          <t xml:space="preserve"> It is instead the manifestation of a creed written into our founding documents:</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2434,29 +2591,32 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>“We hold these truths to be self-evident, that all men are created equal.”</t>
+          <t>“We the People…in order to form a more perfect union.”</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2468,72 +2628,78 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>These are not just words</t>
+          <t>“We hold these truths to be self-evident, that all men are created equal.”</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They are a living thing, a call to action, a roadmap for citizenship and an insistence in the capacity of free men and women to shape our own destiny</t>
+          <t>These are not just words</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2542,35 +2708,38 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For founders like Franklin and Jefferson, for leaders like Lincoln and FDR, the success of our experiment in self-government rested on engaging all our citizens in this work</t>
+          <t xml:space="preserve"> They are a living thing, a call to action, a roadmap for citizenship and an insistence in the capacity of free men and women to shape our own destiny</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2582,29 +2751,32 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s what we celebrate here in Selma</t>
+          <t xml:space="preserve"> For founders like Franklin and Jefferson, for leaders like Lincoln and FDR, the success of our experiment in self-government rested on engaging all our citizens in this work</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2619,25 +2791,28 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s what this movement was all about, one leg in our long journey toward freedom</t>
+          <t xml:space="preserve"> That’s what we celebrate here in Selma</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2653,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2665,20 +2840,23 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The American instinct that led these young men and women to pick up the torch and cross this bridge is the same instinct that moved patriots to choose revolution over tyranny</t>
+          <t xml:space="preserve"> That’s what this movement was all about, one leg in our long journey toward freedom</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2696,29 +2874,32 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It’s the same instinct that drew immigrants from across oceans and the Rio Grande; the same instinct that led women to reach for the ballot and workers to organize against an unjust status quo; the same instinct that led us to plant a flag at Iwo Jima and on the surface of the Moon</t>
+          <t>The American instinct that led these young men and women to pick up the torch and cross this bridge is the same instinct that moved patriots to choose revolution over tyranny</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2727,69 +2908,75 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>It’s the idea held by generations of citizens who believed that America is a constant work in progress; who believed that loving this country requires more than singing its praises or avoiding uncomfortable truths</t>
+          <t xml:space="preserve"> It’s the same instinct that drew immigrants from across oceans and the Rio Grande; the same instinct that led women to reach for the ballot and workers to organize against an unjust status quo; the same instinct that led us to plant a flag at Iwo Jima and on the surface of the Moon</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It requires the occasional disruption, the willingness to speak out for what’s right and shake up the status quo</t>
+          <t>It’s the idea held by generations of citizens who believed that America is a constant work in progress; who believed that loving this country requires more than singing its praises or avoiding uncomfortable truths</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2807,26 +2994,29 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>That’s what makes us unique, and cements our reputation as a beacon of opportunity</t>
+          <t xml:space="preserve"> It requires the occasional disruption, the willingness to speak out for what’s right and shake up the status quo</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2844,26 +3034,29 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Young people behind the Iron Curtain would see Selma and eventually tear down a wall</t>
+          <t>That’s what makes us unique, and cements our reputation as a beacon of opportunity</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2881,29 +3074,32 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Young people in Soweto would hear Bobby Kennedy talk about ripples of hope and eventually banish the scourge of apartheid</t>
+          <t xml:space="preserve"> Young people behind the Iron Curtain would see Selma and eventually tear down a wall</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2924,23 +3120,26 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Young people in Burma went to prison rather than submit to military rule</t>
+          <t xml:space="preserve"> Young people in Soweto would hear Bobby Kennedy talk about ripples of hope and eventually banish the scourge of apartheid</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2955,29 +3154,32 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> From the streets of Tunis to the Maidan in Ukraine, this generation of young people can draw strength from this place, where the powerless could change the world’s greatest superpower, and push their leaders to expand the boundaries of freedom</t>
+          <t xml:space="preserve"> Young people in Burma went to prison rather than submit to military rule</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2989,32 +3191,35 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>They saw that idea made real in Selma, Alabama</t>
+          <t xml:space="preserve"> From the streets of Tunis to the Maidan in Ukraine, this generation of young people can draw strength from this place, where the powerless could change the world’s greatest superpower, and push their leaders to expand the boundaries of freedom</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3029,26 +3234,29 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>They saw it made real in America</t>
+          <t>They saw that idea made real in Selma, Alabama</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3060,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3072,16 +3280,19 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Because of campaigns like this, a Voting Rights Act was passed</t>
+          <t>They saw it made real in America</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3109,20 +3320,23 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Political, economic, and social barriers came down, and the change these men and women wrought is visible here today in the presence of African-Americans who run boardrooms, who sit on the bench, who serve in elected office from small towns to big cities; from the Congressional Black Caucus to the Oval Office</t>
+          <t>Because of campaigns like this, a Voting Rights Act was passed</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3134,32 +3348,35 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Because of what they did, the doors of opportunity swung open not just for African-Americans, but for every American</t>
+          <t xml:space="preserve"> Political, economic, and social barriers came down, and the change these men and women wrought is visible here today in the presence of African-Americans who run boardrooms, who sit on the bench, who serve in elected office from small towns to big cities; from the Congressional Black Caucus to the Oval Office</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3168,35 +3385,38 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Women marched through those doors</t>
+          <t>Because of what they did, the doors of opportunity swung open not just for African-Americans, but for every American</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3211,32 +3431,35 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Latinos marched through those doors</t>
+          <t xml:space="preserve"> Women marched through those doors</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3251,26 +3474,29 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Asian-Americans, gay Americans, and Americans with disabilities came through those doors</t>
+          <t xml:space="preserve"> Latinos marched through those doors</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3288,26 +3514,29 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Their endeavors gave the entire South the chance to rise again, not by reasserting the past, but by transcending the past</t>
+          <t xml:space="preserve"> Asian-Americans, gay Americans, and Americans with disabilities came through those doors</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3316,38 +3545,41 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What a glorious thing, Dr. King might say</t>
+          <t>Their endeavors gave the entire South the chance to rise again, not by reasserting the past, but by transcending the past</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3356,28 +3588,31 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What a solemn debt we owe?</t>
+          <t>What a glorious thing, Dr. King might say</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3399,22 +3634,25 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Which leads us to ask, just how might we repay that debt?</t>
+          <t>What a solemn debt we owe?</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3424,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3436,63 +3674,69 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>First and foremost, we have to recognize that one day’s commemoration, no matter how special, is not enough</t>
+          <t>Which leads us to ask, just how might we repay that debt?</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If Selma taught us anything, it’s that our work is never done – the American experiment in self-government gives work and purpose to each generation</t>
+          <t>First and foremost, we have to recognize that one day’s commemoration, no matter how special, is not enough</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3504,35 +3748,38 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Selma teaches us, too, that action requires that we shed our cynicism</t>
+          <t xml:space="preserve"> If Selma taught us anything, it’s that our work is never done – the American experiment in self-government gives work and purpose to each generation</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -3547,26 +3794,29 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For when it comes to the pursuit of justice, we can afford neither complacency nor despair</t>
+          <t>Selma teaches us, too, that action requires that we shed our cynicism</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3584,63 +3834,69 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Just this week, I was asked whether I thought the Department of Justice’s Ferguson report shows that, with respect to race, little has changed in this country</t>
+          <t xml:space="preserve"> For when it comes to the pursuit of justice, we can afford neither complacency nor despair</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I understand the question, for the report’s narrative was woefully familiar</t>
+          <t>Just this week, I was asked whether I thought the Department of Justice’s Ferguson report shows that, with respect to race, little has changed in this country</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3649,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3664,60 +3920,66 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It evoked the kind of abuse and disregard for citizens that spawned the Civil Rights Movement</t>
+          <t xml:space="preserve"> I understand the question, for the report’s narrative was woefully familiar</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But I rejected the notion that nothing’s changed</t>
+          <t xml:space="preserve"> It evoked the kind of abuse and disregard for citizens that spawned the Civil Rights Movement</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3732,26 +3994,29 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What happened in Ferguson may not be unique, but it’s no longer endemic, or sanctioned by law and custom; and before the Civil Rights Movement, it most surely was</t>
+          <t xml:space="preserve"> But I rejected the notion that nothing’s changed</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3760,35 +4025,38 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>We do a disservice to the cause of justice by intimating that bias and discrimination are immutable, or that racial division is inherent to America</t>
+          <t xml:space="preserve"> What happened in Ferguson may not be unique, but it’s no longer endemic, or sanctioned by law and custom; and before the Civil Rights Movement, it most surely was</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3803,32 +4071,35 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If you think nothing’s changed in the past fifty years, ask somebody who lived through the Selma or Chicago or L.A. of the Fifties</t>
+          <t>We do a disservice to the cause of justice by intimating that bias and discrimination are immutable, or that racial division is inherent to America</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -3837,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3849,23 +4120,26 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ask the female CEO who once might have been assigned to the secretarial pool if nothing’s changed</t>
+          <t xml:space="preserve"> If you think nothing’s changed in the past fifty years, ask somebody who lived through the Selma or Chicago or L.A. of the Fifties</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -3877,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3886,16 +4160,19 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ask your gay friend if it’s easier to be out and proud in America now than it was thirty years ago</t>
+          <t xml:space="preserve"> Ask the female CEO who once might have been assigned to the secretarial pool if nothing’s changed</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3923,20 +4200,23 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To deny this progress – our progress – would be to rob us of our own agency; our responsibility to do what we can to make America better</t>
+          <t xml:space="preserve"> Ask your gay friend if it’s easier to be out and proud in America now than it was thirty years ago</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3951,32 +4231,35 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Of course, a more common mistake is to suggest that racism is banished, that the work that drew men and women to Selma is complete, and that whatever racial tensions remain are a consequence of those seeking to play the “race card” for their own purposes</t>
+          <t xml:space="preserve"> To deny this progress – our progress – would be to rob us of our own agency; our responsibility to do what we can to make America better</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3985,41 +4268,44 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We don’t need the Ferguson report to know that’s not true</t>
+          <t>Of course, a more common mistake is to suggest that racism is banished, that the work that drew men and women to Selma is complete, and that whatever racial tensions remain are a consequence of those seeking to play the “race card” for their own purposes</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4028,22 +4314,25 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We just need to open our eyes, and ears, and hearts, to know that this nation’s racial history still casts its long shadow upon us</t>
+          <t xml:space="preserve"> We don’t need the Ferguson report to know that’s not true</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4059,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4071,23 +4360,26 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We know the march is not yet over, the race is not yet won, and that reaching that blessed destination where we are judged by the content of our character – requires admitting as much</t>
+          <t xml:space="preserve"> We just need to open our eyes, and ears, and hearts, to know that this nation’s racial history still casts its long shadow upon us</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4099,32 +4391,35 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>“We are capable of bearing a great burden,” James Baldwin wrote, “once we discover that the burden is reality and arrive where reality is”</t>
+          <t xml:space="preserve"> We know the march is not yet over, the race is not yet won, and that reaching that blessed destination where we are judged by the content of our character – requires admitting as much</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4136,38 +4431,41 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>This is work for all Americans, and not just some</t>
+          <t>“We are capable of bearing a great burden,” James Baldwin wrote, “once we discover that the burden is reality and arrive where reality is”</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4176,26 +4474,29 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not just whites</t>
+          <t>This is work for all Americans, and not just some</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4207,28 +4508,31 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not just blacks</t>
+          <t xml:space="preserve"> Not just whites</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4256,16 +4560,19 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If we want to honor the courage of those who marched that day, then all of us are called to possess their moral imagination</t>
+          <t xml:space="preserve"> Not just blacks</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4281,35 +4588,38 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All of us will need to feel, as they did, the fierce urgency of now</t>
+          <t xml:space="preserve"> If we want to honor the courage of those who marched that day, then all of us are called to possess their moral imagination</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4318,35 +4628,38 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All of us need to recognize, as they did, that change depends on our actions, our attitudes, the things we teach our children</t>
+          <t xml:space="preserve"> All of us will need to feel, as they did, the fierce urgency of now</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -4358,29 +4671,32 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And if we make such effort, no matter how hard it may seem, laws can be passed, and consciences can be stirred, and consensus can be built</t>
+          <t xml:space="preserve"> All of us need to recognize, as they did, that change depends on our actions, our attitudes, the things we teach our children</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -4395,38 +4711,41 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>With such effort, we can make sure our criminal justice system serves all and not just some</t>
+          <t xml:space="preserve"> And if we make such effort, no matter how hard it may seem, laws can be passed, and consciences can be stirred, and consensus can be built</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4435,26 +4754,29 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Together, we can raise the level of mutual trust that policing is built on – the idea that police officers are members of the communities they risk their lives to protect, and citizens in Ferguson and New York and Cleveland just want the same thing young people here marched for – the protection of the law</t>
+          <t>With such effort, we can make sure our criminal justice system serves all and not just some</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -4466,32 +4788,35 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Together, we can address unfair sentencing, and overcrowded prisons, and the stunted circumstances that rob too many boys of the chance to become men, and rob the nation of too many men who could be good dads, and workers, and neighbors</t>
+          <t xml:space="preserve"> Together, we can raise the level of mutual trust that policing is built on – the idea that police officers are members of the communities they risk their lives to protect, and citizens in Ferguson and New York and Cleveland just want the same thing young people here marched for – the protection of the law</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -4503,32 +4828,35 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>With effort, we can roll back poverty and the roadblocks to opportunity</t>
+          <t xml:space="preserve"> Together, we can address unfair sentencing, and overcrowded prisons, and the stunted circumstances that rob too many boys of the chance to become men, and rob the nation of too many men who could be good dads, and workers, and neighbors</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4543,29 +4871,32 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Americans don’t accept a free ride for anyone, nor do we believe in equality of outcomes</t>
+          <t>With effort, we can roll back poverty and the roadblocks to opportunity</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4574,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -4588,25 +4919,30 @@
       <c r="J112" t="n">
         <v>0</v>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But we do expect equal opportunity, and if we really mean it, if we’re willing to sacrifice for it, then we can make sure every child gets an education suitable to this new century, one that expands imaginations and lifts their sights and gives them skills</t>
+          <t xml:space="preserve"> Americans don’t accept a free ride for anyone, nor do we believe in equality of outcomes</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4624,23 +4960,26 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can make sure every person willing to work has the dignity of a job, and a fair wage, and a real voice, and sturdier rungs on that ladder into the middle class</t>
+          <t xml:space="preserve"> But we do expect equal opportunity, and if we really mean it, if we’re willing to sacrifice for it, then we can make sure every child gets an education suitable to this new century, one that expands imaginations and lifts their sights and gives them skills</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4649,35 +4988,38 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>And with effort, we can protect the foundation stone of our democracy for which so many marched across this bridge – and that is the right to vote</t>
+          <t xml:space="preserve"> We can make sure every person willing to work has the dignity of a job, and a fair wage, and a real voice, and sturdier rungs on that ladder into the middle class</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -4686,32 +5028,35 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right now, in 2015, fifty years after Selma, there are laws across this country designed to make it harder for people to vote</t>
+          <t>And with effort, we can protect the foundation stone of our democracy for which so many marched across this bridge – and that is the right to vote</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4729,26 +5074,29 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> As we speak, more of such laws are being proposed</t>
+          <t xml:space="preserve"> Right now, in 2015, fifty years after Selma, there are laws across this country designed to make it harder for people to vote</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -4766,22 +5114,25 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meanwhile, the Voting Rights Act, the culmination of so much blood and sweat and tears, the product of so much sacrifice in the face of wanton violence, stands weakened, its future subject to partisan rancor</t>
+          <t xml:space="preserve"> As we speak, more of such laws are being proposed</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4809,16 +5160,19 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>How can that be?</t>
+          <t xml:space="preserve"> Meanwhile, the Voting Rights Act, the culmination of so much blood and sweat and tears, the product of so much sacrifice in the face of wanton violence, stands weakened, its future subject to partisan rancor</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4834,47 +5188,50 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Voting Rights Act was one of the crowning achievements of our democracy, the result of Republican and Democratic effort</t>
+          <t>How can that be?</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4883,26 +5240,29 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> President Reagan signed its renewal when he was in office</t>
+          <t>The Voting Rights Act was one of the crowning achievements of our democracy, the result of Republican and Democratic effort</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4914,22 +5274,25 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> President Bush signed its renewal when he was in office</t>
+          <t xml:space="preserve"> President Reagan signed its renewal when he was in office</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4957,16 +5320,19 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One hundred Members of Congress have come here today to honor people who were willing to die for the right it protects</t>
+          <t xml:space="preserve"> President Bush signed its renewal when he was in office</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4994,20 +5360,23 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If we want to honor this day, let these hundred go back to Washington, and gather four hundred more, and together, pledge to make it their mission to restore the law this year</t>
+          <t xml:space="preserve"> One hundred Members of Congress have come here today to honor people who were willing to die for the right it protects</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5019,32 +5388,35 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Of course, our democracy is not the task of Congress alone, or the courts alone, or the President alone</t>
+          <t xml:space="preserve"> If we want to honor this day, let these hundred go back to Washington, and gather four hundred more, and together, pledge to make it their mission to restore the law this year</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5056,32 +5428,35 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If every new voter suppression law was struck down today, we’d still have one of the lowest voting rates among free peoples</t>
+          <t>Of course, our democracy is not the task of Congress alone, or the courts alone, or the President alone</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -5093,28 +5468,31 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fifty years ago, registering to vote here in Selma and much of the South meant guessing the number of jellybeans in a jar or bubbles on a bar of soap</t>
+          <t xml:space="preserve"> If every new voter suppression law was struck down today, we’d still have one of the lowest voting rates among free peoples</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5124,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5136,29 +5514,32 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It meant risking your dignity, and sometimes, your life</t>
+          <t xml:space="preserve"> Fifty years ago, registering to vote here in Selma and much of the South meant guessing the number of jellybeans in a jar or bubbles on a bar of soap</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -5179,23 +5560,26 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What is our excuse today for not voting? </t>
+          <t xml:space="preserve"> It meant risking your dignity, and sometimes, your life</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -5204,28 +5588,31 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">How do we so casually discard the right for which so many fought? </t>
+          <t xml:space="preserve"> What is our excuse today for not voting? </t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5235,34 +5622,37 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>How do we so fully give away our power, our voice, in shaping America’s future?</t>
+          <t xml:space="preserve">How do we so casually discard the right for which so many fought? </t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5272,71 +5662,77 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fellow marchers, so much has changed in fifty years</t>
+          <t>How do we so fully give away our power, our voice, in shaping America’s future?</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We’ve endured war, and fashioned peace</t>
+          <t>Fellow marchers, so much has changed in fifty years</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5364,20 +5760,23 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We’ve seen technological wonders that touch every aspect of our lives, and take for granted convenience our parents might scarcely imagine</t>
+          <t xml:space="preserve"> We’ve endured war, and fashioned peace</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -5389,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -5401,20 +5800,23 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But what has not changed is the imperative of citizenship, that willingness of a 26 year-old deacon, or a Unitarian minister, or a young mother of five, to decide they loved this country so much that they’d risk everything to realize its promise</t>
+          <t xml:space="preserve"> We’ve seen technological wonders that touch every aspect of our lives, and take for granted convenience our parents might scarcely imagine</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -5426,32 +5828,35 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>That’s what it means to love America</t>
+          <t xml:space="preserve"> But what has not changed is the imperative of citizenship, that willingness of a 26 year-old deacon, or a Unitarian minister, or a young mother of five, to decide they loved this country so much that they’d risk everything to realize its promise</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -5463,35 +5868,38 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s what it means to believe in America</t>
+          <t>That’s what it means to love America</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -5500,28 +5908,31 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s what it means when we say America is exceptional</t>
+          <t xml:space="preserve"> That’s what it means to believe in America</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5537,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -5549,16 +5960,19 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>For we were born of change</t>
+          <t xml:space="preserve"> That’s what it means when we say America is exceptional</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5586,60 +6000,66 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We broke the old aristocracies, declaring ourselves entitled not by bloodline, but endowed by our Creator with certain unalienable rights</t>
+          <t>For we were born of change</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We secure our rights and responsibilities through a system of self-government, of and by and for the people</t>
+          <t xml:space="preserve"> We broke the old aristocracies, declaring ourselves entitled not by bloodline, but endowed by our Creator with certain unalienable rights</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -5654,26 +6074,29 @@
         <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s why we argue and fight with so much passion and conviction, because we know our efforts matter</t>
+          <t xml:space="preserve"> We secure our rights and responsibilities through a system of self-government, of and by and for the people</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -5685,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -5697,20 +6120,23 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We know America is what we make of it</t>
+          <t xml:space="preserve"> That’s why we argue and fight with so much passion and conviction, because we know our efforts matter</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -5722,35 +6148,38 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>We are Lewis and Clark and Sacajawea – pioneers who braved the unfamiliar, followed by a stampede of farmers and miners, entrepreneurs and hucksters</t>
+          <t xml:space="preserve"> We know America is what we make of it</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -5771,29 +6200,32 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s our spirit</t>
+          <t>We are Lewis and Clark and Sacajawea – pioneers who braved the unfamiliar, followed by a stampede of farmers and miners, entrepreneurs and hucksters</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5808,20 +6240,23 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>We are Sojourner Truth and Fannie Lou Hamer, women who could do as much as any man and then some; and we’re Susan B.  Anthony, who shook the system until the law reflected that truth</t>
+          <t xml:space="preserve"> That’s our spirit</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5833,35 +6268,38 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s our character</t>
+          <t>We are Sojourner Truth and Fannie Lou Hamer, women who could do as much as any man and then some; and we’re Susan B.  Anthony, who shook the system until the law reflected that truth</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -5870,28 +6308,31 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>We’re the immigrants who stowed away on ships to reach these shores, the huddled masses yearning to breathe free – Holocaust survivors, Soviet defectors, the Lost Boys of Sudan</t>
+          <t xml:space="preserve"> That’s our character</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5919,57 +6360,63 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are the hopeful strivers who cross the Rio Grande because they want their kids to know a better life</t>
+          <t>We’re the immigrants who stowed away on ships to reach these shores, the huddled masses yearning to breathe free – Holocaust survivors, Soviet defectors, the Lost Boys of Sudan</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s how we came to be</t>
+          <t xml:space="preserve"> We are the hopeful strivers who cross the Rio Grande because they want their kids to know a better life</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -5981,32 +6428,35 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
       </c>
       <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>We’re the slaves who built the White House and the economy of the South</t>
+          <t xml:space="preserve"> That’s how we came to be</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -6030,20 +6480,23 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We’re the ranch hands and cowboys who opened the West, and countless laborers who laid rail, and raised skyscrapers, and organized for workers’ rights</t>
+          <t>We’re the slaves who built the White House and the economy of the South</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -6061,26 +6514,29 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>We’re the fresh-faced GIs who fought to liberate a continent, and we’re the Tuskeegee Airmen, Navajo code-talkers, and Japanese-Americans who fought for this country even as their own liberty had been denied</t>
+          <t xml:space="preserve"> We’re the ranch hands and cowboys who opened the West, and countless laborers who laid rail, and raised skyscrapers, and organized for workers’ rights</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -6095,29 +6551,32 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We’re the firefighters who rushed into those buildings on 9/11, and the volunteers who signed up to fight in Afghanistan and Iraq</t>
+          <t>We’re the fresh-faced GIs who fought to liberate a continent, and we’re the Tuskeegee Airmen, Navajo code-talkers, and Japanese-Americans who fought for this country even as their own liberty had been denied</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6132,29 +6591,32 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
       </c>
       <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>We are the gay Americans whose blood ran on the streets of San Francisco and New York, just as blood ran down this bridge</t>
+          <t xml:space="preserve"> We’re the firefighters who rushed into those buildings on 9/11, and the volunteers who signed up to fight in Afghanistan and Iraq</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6169,32 +6631,35 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
       </c>
       <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>We are storytellers, writers, poets, and artists who abhor unfairness, and despise hypocrisy, and give voice to the voiceless, and tell truths that need to be told</t>
+          <t>We are the gay Americans whose blood ran on the streets of San Francisco and New York, just as blood ran down this bridge</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6206,32 +6671,35 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>We are the inventors of gospel and jazz and the blues, bluegrass and country, hip-hop and rock and roll, our very own sounds with all the sweet sorrow and reckless joy of freedom</t>
+          <t>We are storytellers, writers, poets, and artists who abhor unfairness, and despise hypocrisy, and give voice to the voiceless, and tell truths that need to be told</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6240,35 +6708,38 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
       </c>
       <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>We are Jackie Robinson, enduring scorn and spiked cleats and pitches coming straight to his head, and stealing home in the World Series anyway</t>
+          <t>We are the inventors of gospel and jazz and the blues, bluegrass and country, hip-hop and rock and roll, our very own sounds with all the sweet sorrow and reckless joy of freedom</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6277,35 +6748,38 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>We are the people Langston Hughes wrote of, who “build our temples for tomorrow, strong as we know how.”</t>
+          <t>We are Jackie Robinson, enduring scorn and spiked cleats and pitches coming straight to his head, and stealing home in the World Series anyway</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -6314,35 +6788,38 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>We are the people Emerson wrote of, “who for truth and honor’s sake stand fast and suffer long;” who are “never tired, so long as we can see far enough.”</t>
+          <t>We are the people Langston Hughes wrote of, who “build our temples for tomorrow, strong as we know how.”</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -6354,29 +6831,32 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>That’s what America is</t>
+          <t>We are the people Emerson wrote of, “who for truth and honor’s sake stand fast and suffer long;” who are “never tired, so long as we can see far enough.”</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -6385,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6394,26 +6874,29 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not stock photos or airbrushed history or feeble attempts to define some of us as more American as others</t>
+          <t>That’s what America is</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -6425,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -6437,57 +6920,63 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We respect the past, but we don’t pine for it</t>
+          <t xml:space="preserve"> Not stock photos or airbrushed history or feeble attempts to define some of us as more American as others</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
       </c>
       <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We don’t fear the future; we grab for it</t>
+          <t xml:space="preserve"> We respect the past, but we don’t pine for it</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6496,35 +6985,38 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
       </c>
       <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> America is not some fragile thing; we are large, in the words of Whitman, containing multitudes</t>
+          <t xml:space="preserve"> We don’t fear the future; we grab for it</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6533,38 +7025,41 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are boisterous and diverse and full of energy, perpetually young in spirit</t>
+          <t xml:space="preserve"> America is not some fragile thing; we are large, in the words of Whitman, containing multitudes</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -6573,35 +7068,38 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
       </c>
       <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That’s why someone like John Lewis at the ripe age of 25 could lead a mighty march</t>
+          <t xml:space="preserve"> We are boisterous and diverse and full of energy, perpetually young in spirit</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -6610,35 +7108,38 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>And that’s what the young people here today and listening all across the country must take away from this day</t>
+          <t xml:space="preserve"> That’s why someone like John Lewis at the ripe age of 25 could lead a mighty march</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -6647,32 +7148,35 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
       </c>
       <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are America</t>
+          <t>And that’s what the young people here today and listening all across the country must take away from this day</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -6684,28 +7188,31 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unconstrained by habits and convention</t>
+          <t xml:space="preserve"> You are America</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6721,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -6733,23 +7240,26 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unencumbered by what is, and ready to seize what ought to be</t>
+          <t xml:space="preserve"> Unconstrained by habits and convention</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -6758,35 +7268,38 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For everywhere in this country, there are first steps to be taken, and new ground to cover, and bridges to be crossed</t>
+          <t xml:space="preserve"> Unencumbered by what is, and ready to seize what ought to be</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -6801,29 +7314,32 @@
         <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And it is you, the young and fearless at heart, the most diverse and educated generation in our history, who the nation is waiting to follow</t>
+          <t xml:space="preserve"> For everywhere in this country, there are first steps to be taken, and new ground to cover, and bridges to be crossed</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -6832,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>1</v>
@@ -6844,20 +7360,23 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Because Selma shows us that America is not the project of any one person</t>
+          <t xml:space="preserve"> And it is you, the young and fearless at heart, the most diverse and educated generation in our history, who the nation is waiting to follow</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6869,32 +7388,35 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Because the single most powerful word in our democracy is the word “We.”</t>
+          <t>Because Selma shows us that America is not the project of any one person</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -6906,32 +7428,35 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
       </c>
       <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We The People</t>
+          <t>Because the single most powerful word in our democracy is the word “We.”</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -6943,33 +7468,38 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We Shall Overcome</t>
+          <t xml:space="preserve"> We The People</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -6978,33 +7508,38 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes We Can</t>
+          <t xml:space="preserve"> We Shall Overcome</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -7013,44 +7548,47 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is owned by no one</t>
+          <t xml:space="preserve"> Yes We Can</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -7062,16 +7600,19 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It belongs to everyone</t>
+          <t xml:space="preserve"> It is owned by no one</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -7087,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7099,23 +7640,26 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh, what a glorious task we are given, to continually try to improve this great nation of ours</t>
+          <t xml:space="preserve"> It belongs to everyone</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -7124,32 +7668,35 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Fifty years from Bloody Sunday, our march is not yet finished</t>
+          <t xml:space="preserve"> Oh, what a glorious task we are given, to continually try to improve this great nation of ours</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -7161,35 +7708,38 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But we are getting closer</t>
+          <t>Fifty years from Bloody Sunday, our march is not yet finished</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -7204,41 +7754,44 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Two hundred and thirty-nine years after this nation’s founding, our union is not yet perfect</t>
+          <t xml:space="preserve"> But we are getting closer</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -7247,20 +7800,23 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But we are getting closer</t>
+          <t xml:space="preserve"> Two hundred and thirty-nine years after this nation’s founding, our union is not yet perfect</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -7278,29 +7834,32 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our job’s easier because somebody already got us through that first mile</t>
+          <t xml:space="preserve"> But we are getting closer</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -7312,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -7321,20 +7880,23 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Somebody already got us over that bridge</t>
+          <t xml:space="preserve"> Our job’s easier because somebody already got us through that first mile</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -7352,22 +7914,25 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
       <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When it feels the road’s too hard, when the torch we’ve been passed feels too heavy, we will remember these early travelers, and draw strength from their example, and hold firmly the words of the prophet Isaiah:</t>
+          <t xml:space="preserve"> Somebody already got us over that bridge</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -7383,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -7395,29 +7960,32 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>“Those who hope in the Lord will renew their strength. They will soar on wings like eagles. They will run and not grow weary. They will walk and not be faint.”</t>
+          <t xml:space="preserve"> When it feels the road’s too hard, when the torch we’ve been passed feels too heavy, we will remember these early travelers, and draw strength from their example, and hold firmly the words of the prophet Isaiah:</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7426,29 +7994,32 @@
         <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
       </c>
       <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>We honor those who walked so we could run</t>
+          <t>“Those who hope in the Lord will renew their strength. They will soar on wings like eagles. They will run and not grow weary. They will walk and not be faint.”</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -7463,29 +8034,32 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>We must run so our children soar</t>
+          <t>We honor those who walked so we could run</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -7494,35 +8068,38 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And we will not grow weary</t>
+          <t>We must run so our children soar</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -7531,35 +8108,38 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For we believe in the power of an awesome God, and we believe in this country’s sacred promise</t>
+          <t xml:space="preserve"> And we will not grow weary</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -7568,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -7580,20 +8160,23 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>May He bless those warriors of justice no longer with us, and bless the United States of America</t>
+          <t xml:space="preserve"> For we believe in the power of an awesome God, and we believe in this country’s sacred promise</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7605,34 +8188,41 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>May He bless those warriors of justice no longer with us, and bless the United States of America</t>
+        </is>
+      </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7644,18 +8234,21 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
       </c>
       <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
@@ -7685,10 +8278,13 @@
       <c r="K196" t="n">
         <v>0</v>
       </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
@@ -7718,10 +8314,13 @@
       <c r="K197" t="n">
         <v>0</v>
       </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
@@ -7751,10 +8350,13 @@
       <c r="K198" t="n">
         <v>0</v>
       </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
@@ -7784,10 +8386,13 @@
       <c r="K199" t="n">
         <v>0</v>
       </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
@@ -7817,10 +8422,13 @@
       <c r="K200" t="n">
         <v>0</v>
       </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
@@ -7850,10 +8458,13 @@
       <c r="K201" t="n">
         <v>0</v>
       </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
@@ -7883,10 +8494,13 @@
       <c r="K202" t="n">
         <v>0</v>
       </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
@@ -7916,10 +8530,13 @@
       <c r="K203" t="n">
         <v>0</v>
       </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
@@ -7949,10 +8566,13 @@
       <c r="K204" t="n">
         <v>0</v>
       </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
@@ -7982,10 +8602,13 @@
       <c r="K205" t="n">
         <v>0</v>
       </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
@@ -8015,10 +8638,13 @@
       <c r="K206" t="n">
         <v>0</v>
       </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
@@ -8048,10 +8674,13 @@
       <c r="K207" t="n">
         <v>0</v>
       </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
@@ -8081,10 +8710,13 @@
       <c r="K208" t="n">
         <v>0</v>
       </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
@@ -8114,10 +8746,13 @@
       <c r="K209" t="n">
         <v>0</v>
       </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
@@ -8147,10 +8782,13 @@
       <c r="K210" t="n">
         <v>0</v>
       </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
@@ -8180,10 +8818,13 @@
       <c r="K211" t="n">
         <v>0</v>
       </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
@@ -8213,10 +8854,13 @@
       <c r="K212" t="n">
         <v>0</v>
       </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
@@ -8246,10 +8890,13 @@
       <c r="K213" t="n">
         <v>0</v>
       </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
@@ -8279,10 +8926,13 @@
       <c r="K214" t="n">
         <v>0</v>
       </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
@@ -8312,10 +8962,13 @@
       <c r="K215" t="n">
         <v>0</v>
       </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
@@ -8345,10 +8998,13 @@
       <c r="K216" t="n">
         <v>0</v>
       </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
@@ -8378,10 +9034,13 @@
       <c r="K217" t="n">
         <v>0</v>
       </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
@@ -8411,10 +9070,13 @@
       <c r="K218" t="n">
         <v>0</v>
       </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
@@ -8444,10 +9106,13 @@
       <c r="K219" t="n">
         <v>0</v>
       </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
@@ -8477,10 +9142,13 @@
       <c r="K220" t="n">
         <v>0</v>
       </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
@@ -8510,10 +9178,13 @@
       <c r="K221" t="n">
         <v>0</v>
       </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
@@ -8543,10 +9214,13 @@
       <c r="K222" t="n">
         <v>0</v>
       </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
@@ -8576,10 +9250,13 @@
       <c r="K223" t="n">
         <v>0</v>
       </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
@@ -8609,10 +9286,13 @@
       <c r="K224" t="n">
         <v>0</v>
       </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
@@ -8642,10 +9322,13 @@
       <c r="K225" t="n">
         <v>0</v>
       </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
@@ -8675,10 +9358,13 @@
       <c r="K226" t="n">
         <v>0</v>
       </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
@@ -8708,10 +9394,13 @@
       <c r="K227" t="n">
         <v>0</v>
       </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
@@ -8741,10 +9430,13 @@
       <c r="K228" t="n">
         <v>0</v>
       </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
@@ -8774,10 +9466,13 @@
       <c r="K229" t="n">
         <v>0</v>
       </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
@@ -8807,10 +9502,13 @@
       <c r="K230" t="n">
         <v>0</v>
       </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
@@ -8840,10 +9538,13 @@
       <c r="K231" t="n">
         <v>0</v>
       </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
@@ -8873,10 +9574,13 @@
       <c r="K232" t="n">
         <v>0</v>
       </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
@@ -8906,10 +9610,13 @@
       <c r="K233" t="n">
         <v>0</v>
       </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
@@ -8939,10 +9646,13 @@
       <c r="K234" t="n">
         <v>0</v>
       </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
@@ -8972,10 +9682,13 @@
       <c r="K235" t="n">
         <v>0</v>
       </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
@@ -9005,10 +9718,13 @@
       <c r="K236" t="n">
         <v>0</v>
       </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
@@ -9038,10 +9754,13 @@
       <c r="K237" t="n">
         <v>0</v>
       </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
@@ -9071,10 +9790,13 @@
       <c r="K238" t="n">
         <v>0</v>
       </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
@@ -9104,10 +9826,13 @@
       <c r="K239" t="n">
         <v>0</v>
       </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
@@ -9137,10 +9862,13 @@
       <c r="K240" t="n">
         <v>0</v>
       </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
@@ -9170,10 +9898,13 @@
       <c r="K241" t="n">
         <v>0</v>
       </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
@@ -9203,10 +9934,13 @@
       <c r="K242" t="n">
         <v>0</v>
       </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
@@ -9236,10 +9970,13 @@
       <c r="K243" t="n">
         <v>0</v>
       </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
@@ -9269,10 +10006,13 @@
       <c r="K244" t="n">
         <v>0</v>
       </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
@@ -9302,10 +10042,13 @@
       <c r="K245" t="n">
         <v>0</v>
       </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
@@ -9335,10 +10078,13 @@
       <c r="K246" t="n">
         <v>0</v>
       </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
@@ -9368,10 +10114,13 @@
       <c r="K247" t="n">
         <v>0</v>
       </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
@@ -9401,10 +10150,13 @@
       <c r="K248" t="n">
         <v>0</v>
       </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
@@ -9434,10 +10186,13 @@
       <c r="K249" t="n">
         <v>0</v>
       </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="n">
@@ -9467,10 +10222,13 @@
       <c r="K250" t="n">
         <v>0</v>
       </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
@@ -9500,10 +10258,13 @@
       <c r="K251" t="n">
         <v>0</v>
       </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
@@ -9533,10 +10294,13 @@
       <c r="K252" t="n">
         <v>0</v>
       </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
@@ -9566,10 +10330,13 @@
       <c r="K253" t="n">
         <v>0</v>
       </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
@@ -9599,10 +10366,13 @@
       <c r="K254" t="n">
         <v>0</v>
       </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
@@ -9632,10 +10402,13 @@
       <c r="K255" t="n">
         <v>0</v>
       </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="n">
@@ -9665,10 +10438,13 @@
       <c r="K256" t="n">
         <v>0</v>
       </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
@@ -9698,10 +10474,13 @@
       <c r="K257" t="n">
         <v>0</v>
       </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
@@ -9731,10 +10510,13 @@
       <c r="K258" t="n">
         <v>0</v>
       </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
@@ -9764,10 +10546,13 @@
       <c r="K259" t="n">
         <v>0</v>
       </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="n">
@@ -9797,10 +10582,13 @@
       <c r="K260" t="n">
         <v>0</v>
       </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
@@ -9830,10 +10618,13 @@
       <c r="K261" t="n">
         <v>0</v>
       </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="n">
@@ -9863,10 +10654,13 @@
       <c r="K262" t="n">
         <v>0</v>
       </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
@@ -9896,10 +10690,13 @@
       <c r="K263" t="n">
         <v>0</v>
       </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
@@ -9929,10 +10726,13 @@
       <c r="K264" t="n">
         <v>0</v>
       </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
@@ -9962,10 +10762,13 @@
       <c r="K265" t="n">
         <v>0</v>
       </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
@@ -9995,10 +10798,13 @@
       <c r="K266" t="n">
         <v>0</v>
       </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
@@ -10028,10 +10834,13 @@
       <c r="K267" t="n">
         <v>0</v>
       </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
@@ -10061,10 +10870,13 @@
       <c r="K268" t="n">
         <v>0</v>
       </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
@@ -10094,10 +10906,13 @@
       <c r="K269" t="n">
         <v>0</v>
       </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
@@ -10127,10 +10942,13 @@
       <c r="K270" t="n">
         <v>0</v>
       </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
@@ -10160,10 +10978,13 @@
       <c r="K271" t="n">
         <v>0</v>
       </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
@@ -10193,10 +11014,13 @@
       <c r="K272" t="n">
         <v>0</v>
       </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
@@ -10226,10 +11050,13 @@
       <c r="K273" t="n">
         <v>0</v>
       </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
@@ -10259,10 +11086,13 @@
       <c r="K274" t="n">
         <v>0</v>
       </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
@@ -10292,10 +11122,13 @@
       <c r="K275" t="n">
         <v>0</v>
       </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
@@ -10325,10 +11158,13 @@
       <c r="K276" t="n">
         <v>0</v>
       </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
@@ -10358,10 +11194,13 @@
       <c r="K277" t="n">
         <v>0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
@@ -10391,10 +11230,13 @@
       <c r="K278" t="n">
         <v>0</v>
       </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
@@ -10424,10 +11266,13 @@
       <c r="K279" t="n">
         <v>0</v>
       </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
@@ -10457,10 +11302,13 @@
       <c r="K280" t="n">
         <v>0</v>
       </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
@@ -10490,10 +11338,13 @@
       <c r="K281" t="n">
         <v>0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
@@ -10523,10 +11374,13 @@
       <c r="K282" t="n">
         <v>0</v>
       </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
@@ -10556,10 +11410,13 @@
       <c r="K283" t="n">
         <v>0</v>
       </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
@@ -10589,10 +11446,13 @@
       <c r="K284" t="n">
         <v>0</v>
       </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
@@ -10622,10 +11482,13 @@
       <c r="K285" t="n">
         <v>0</v>
       </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
@@ -10655,10 +11518,13 @@
       <c r="K286" t="n">
         <v>0</v>
       </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
@@ -10688,10 +11554,13 @@
       <c r="K287" t="n">
         <v>0</v>
       </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
@@ -10721,10 +11590,13 @@
       <c r="K288" t="n">
         <v>0</v>
       </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
@@ -10754,10 +11626,13 @@
       <c r="K289" t="n">
         <v>0</v>
       </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
@@ -10787,10 +11662,13 @@
       <c r="K290" t="n">
         <v>0</v>
       </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
@@ -10820,10 +11698,13 @@
       <c r="K291" t="n">
         <v>0</v>
       </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
@@ -10853,10 +11734,13 @@
       <c r="K292" t="n">
         <v>0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
@@ -10886,10 +11770,13 @@
       <c r="K293" t="n">
         <v>0</v>
       </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
@@ -10919,10 +11806,13 @@
       <c r="K294" t="n">
         <v>0</v>
       </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
@@ -10952,10 +11842,13 @@
       <c r="K295" t="n">
         <v>0</v>
       </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
@@ -10985,10 +11878,13 @@
       <c r="K296" t="n">
         <v>0</v>
       </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
@@ -11018,10 +11914,13 @@
       <c r="K297" t="n">
         <v>0</v>
       </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
@@ -11049,6 +11948,45 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Speech_3_Testspeech_AI.xlsx
+++ b/test_speeches/predictions/Speech_3_Testspeech_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
